--- a/eodTemplate2.xlsx
+++ b/eodTemplate2.xlsx
@@ -83,8 +83,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="[$€-83C]#,##0.00;[RED]\-[$€-83C]#,##0.00"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -347,7 +348,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -424,19 +425,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -448,11 +453,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -464,15 +469,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -484,11 +493,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -496,15 +517,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -608,7 +621,7 @@
   <dimension ref="A1:AMJ34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -727,464 +740,464 @@
       <c r="I8" s="21"/>
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
       <c r="O8" s="20"/>
       <c r="AMI8" s="0"/>
       <c r="AMJ8" s="0"/>
     </row>
     <row r="9" s="7" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="23" t="n">
+      <c r="A9" s="24" t="n">
         <v>2</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
       <c r="O9" s="20"/>
       <c r="AMI9" s="0"/>
       <c r="AMJ9" s="0"/>
     </row>
     <row r="10" s="7" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="23" t="n">
+      <c r="A10" s="24" t="n">
         <v>3</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
       <c r="O10" s="20"/>
       <c r="AMI10" s="0"/>
       <c r="AMJ10" s="0"/>
     </row>
     <row r="11" s="7" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="23" t="n">
+      <c r="A11" s="24" t="n">
         <v>4</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
       <c r="O11" s="20"/>
       <c r="AMI11" s="0"/>
       <c r="AMJ11" s="0"/>
     </row>
     <row r="12" s="7" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="23" t="n">
+      <c r="A12" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
       <c r="O12" s="20"/>
       <c r="AMI12" s="0"/>
       <c r="AMJ12" s="0"/>
     </row>
     <row r="13" s="7" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="23" t="n">
+      <c r="A13" s="24" t="n">
         <v>6</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
       <c r="O13" s="20"/>
       <c r="AMI13" s="0"/>
       <c r="AMJ13" s="0"/>
     </row>
     <row r="14" s="7" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="23" t="n">
+      <c r="A14" s="24" t="n">
         <v>7</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
       <c r="O14" s="20"/>
       <c r="AMI14" s="0"/>
       <c r="AMJ14" s="0"/>
     </row>
     <row r="15" s="7" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="23" t="n">
+      <c r="A15" s="24" t="n">
         <v>8</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
       <c r="O15" s="20"/>
       <c r="AMI15" s="0"/>
       <c r="AMJ15" s="0"/>
     </row>
     <row r="16" s="7" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="31"/>
       <c r="AMI16" s="0"/>
       <c r="AMJ16" s="0"/>
     </row>
     <row r="17" s="7" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="39"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="42"/>
       <c r="AMI17" s="0"/>
       <c r="AMJ17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="19" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="41"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="41"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="41"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="41"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="41"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="41"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="41"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="41"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="45"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="41"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="45"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="41"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="42"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="45"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="41"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="42"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="45"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="41"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="45"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="41"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="42"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="41"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="42"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="43"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="44"/>
-      <c r="M34" s="44"/>
-      <c r="N34" s="44"/>
-      <c r="O34" s="44"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="29">
